--- a/Code/Results/Cases/Case_3_152/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_152/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9718312454856743</v>
+        <v>0.5260084838407408</v>
       </c>
       <c r="C2">
-        <v>0.1709496730807913</v>
+        <v>0.2872063558142699</v>
       </c>
       <c r="D2">
-        <v>0.07220718667234394</v>
+        <v>0.05618599683036507</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.6904557040994703</v>
+        <v>1.123251065952957</v>
       </c>
       <c r="G2">
-        <v>0.0008213071257732185</v>
+        <v>0.002480392340157849</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.7908776077234734</v>
+        <v>0.2451419974972282</v>
       </c>
       <c r="L2">
-        <v>0.2229997222568159</v>
+        <v>0.2941846220858366</v>
       </c>
       <c r="M2">
-        <v>0.2344025008965893</v>
+        <v>0.1852605062729822</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>2.218220342531481</v>
+        <v>4.067591855727045</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8444798052245517</v>
+        <v>0.4909891331739971</v>
       </c>
       <c r="C3">
-        <v>0.1735999009504425</v>
+        <v>0.2881809373423287</v>
       </c>
       <c r="D3">
-        <v>0.06755026383941498</v>
+        <v>0.05441949097095033</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.6652142833393881</v>
+        <v>1.123706267813873</v>
       </c>
       <c r="G3">
-        <v>0.0008252399968864923</v>
+        <v>0.002482947316076259</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.6917171470570054</v>
+        <v>0.2148992048153957</v>
       </c>
       <c r="L3">
-        <v>0.2041416371646321</v>
+        <v>0.2908679756148871</v>
       </c>
       <c r="M3">
-        <v>0.2057245651322148</v>
+        <v>0.1781141232952024</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>2.185045642084106</v>
+        <v>4.083599013994387</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7666181177243629</v>
+        <v>0.4696698222861926</v>
       </c>
       <c r="C4">
-        <v>0.1752981224245183</v>
+        <v>0.2888166716796761</v>
       </c>
       <c r="D4">
-        <v>0.06467543283159216</v>
+        <v>0.05332109844982824</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.6509005700475115</v>
+        <v>1.124571423672705</v>
       </c>
       <c r="G4">
-        <v>0.0008277357233167934</v>
+        <v>0.002484600572380495</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.6308609516148636</v>
+        <v>0.1963093341437769</v>
       </c>
       <c r="L4">
-        <v>0.1928345242775364</v>
+        <v>0.2889787838425733</v>
       </c>
       <c r="M4">
-        <v>0.1882704671269551</v>
+        <v>0.1738111013135963</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>2.168571053272501</v>
+        <v>4.09538613175738</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7349586558007672</v>
+        <v>0.4610285048303808</v>
       </c>
       <c r="C5">
-        <v>0.1760079775492365</v>
+        <v>0.2890851550677738</v>
       </c>
       <c r="D5">
-        <v>0.06349982450013414</v>
+        <v>0.05287005678045631</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.6453517142060079</v>
+        <v>1.125071314183174</v>
       </c>
       <c r="G5">
-        <v>0.0008287734540143865</v>
+        <v>0.002485295596443295</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.6060597537776431</v>
+        <v>0.1887289998868624</v>
       </c>
       <c r="L5">
-        <v>0.1882909297095452</v>
+        <v>0.2882460103439612</v>
       </c>
       <c r="M5">
-        <v>0.1811926546404834</v>
+        <v>0.1720790392824263</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>2.16279615620229</v>
+        <v>4.100682132642248</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7297054527580826</v>
+        <v>0.4595964432696178</v>
       </c>
       <c r="C6">
-        <v>0.1761269237080789</v>
+        <v>0.2891303060801285</v>
       </c>
       <c r="D6">
-        <v>0.06330436285578855</v>
+        <v>0.05279495460925432</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.6444470993346627</v>
+        <v>1.125163221011064</v>
       </c>
       <c r="G6">
-        <v>0.0008289470287243805</v>
+        <v>0.002485412293665361</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.6019411709753371</v>
+        <v>0.187470012033117</v>
       </c>
       <c r="L6">
-        <v>0.1875402244886999</v>
+        <v>0.2881265756887572</v>
       </c>
       <c r="M6">
-        <v>0.1800193849525193</v>
+        <v>0.1717927307103224</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>2.161892776313778</v>
+        <v>4.101591288659307</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7661908822269652</v>
+        <v>0.469553093577872</v>
       </c>
       <c r="C7">
-        <v>0.1753076236776607</v>
+        <v>0.2888202543762937</v>
       </c>
       <c r="D7">
-        <v>0.06465959499114149</v>
+        <v>0.05331502943749911</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.650824603664006</v>
+        <v>1.124577568744712</v>
       </c>
       <c r="G7">
-        <v>0.0008277496342886396</v>
+        <v>0.002484609859490373</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.6305264928448508</v>
+        <v>0.1962071220695378</v>
       </c>
       <c r="L7">
-        <v>0.192772993457524</v>
+        <v>0.2889687511542505</v>
       </c>
       <c r="M7">
-        <v>0.1881748770979961</v>
+        <v>0.1737876551063593</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>2.168489422897494</v>
+        <v>4.095455560565455</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9278428370888321</v>
+        <v>0.5138961959052892</v>
       </c>
       <c r="C8">
-        <v>0.1718487224824727</v>
+        <v>0.2875346587847964</v>
       </c>
       <c r="D8">
-        <v>0.07060456056134257</v>
+        <v>0.05557977105444678</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.6814980810640066</v>
+        <v>1.123286501178328</v>
       </c>
       <c r="G8">
-        <v>0.0008226465999756895</v>
+        <v>0.002481255797635958</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.756675492310265</v>
+        <v>0.2347187962640618</v>
       </c>
       <c r="L8">
-        <v>0.2164384333874523</v>
+        <v>0.293010517712645</v>
       </c>
       <c r="M8">
-        <v>0.2244798988718273</v>
+        <v>0.1827788780771655</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>2.205948169240742</v>
+        <v>4.072704679758488</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.248158290818907</v>
+        <v>0.6022840684067035</v>
       </c>
       <c r="C9">
-        <v>0.1656304029060927</v>
+        <v>0.2853086249970254</v>
       </c>
       <c r="D9">
-        <v>0.08215036448495994</v>
+        <v>0.05991112569153501</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.7517073202300324</v>
+        <v>1.12540021635651</v>
       </c>
       <c r="G9">
-        <v>0.0008132648970243489</v>
+        <v>0.002475346020455953</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.004726607774813</v>
+        <v>0.3100627074197462</v>
       </c>
       <c r="L9">
-        <v>0.2652058188667041</v>
+        <v>0.3021027377546233</v>
       </c>
       <c r="M9">
-        <v>0.297088561229593</v>
+        <v>0.2010804578281267</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>2.312255105124081</v>
+        <v>4.043628215787692</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.486539387579597</v>
+        <v>0.6680771914600996</v>
       </c>
       <c r="C10">
-        <v>0.1614081621050012</v>
+        <v>0.2838513065478061</v>
       </c>
       <c r="D10">
-        <v>0.0905809801374815</v>
+        <v>0.06302578251229107</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.8103974514459651</v>
+        <v>1.129785203476004</v>
       </c>
       <c r="G10">
-        <v>0.0008067286193516139</v>
+        <v>0.002471407029238181</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.188057598375849</v>
+        <v>0.3652972908333822</v>
       </c>
       <c r="L10">
-        <v>0.3027755007112773</v>
+        <v>0.3094922771653756</v>
       </c>
       <c r="M10">
-        <v>0.351582701592541</v>
+        <v>0.214931567319482</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>2.413264276030787</v>
+        <v>4.031737999728051</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.595891809109304</v>
+        <v>0.6981903876179558</v>
       </c>
       <c r="C11">
-        <v>0.1595631502510315</v>
+        <v>0.283226660758011</v>
       </c>
       <c r="D11">
-        <v>0.09440894728108873</v>
+        <v>0.06442792264946462</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.8388724446793674</v>
+        <v>1.132395131648209</v>
       </c>
       <c r="G11">
-        <v>0.0008038266931695854</v>
+        <v>0.002469701716072035</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.27185892604669</v>
+        <v>0.390396455444062</v>
       </c>
       <c r="L11">
-        <v>0.3203167022771538</v>
+        <v>0.3130077718672624</v>
       </c>
       <c r="M11">
-        <v>0.3766912968850278</v>
+        <v>0.2213201031223235</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.464875786511612</v>
+        <v>4.028385937094896</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.637453406030147</v>
+        <v>0.7096194320766642</v>
       </c>
       <c r="C12">
-        <v>0.1588754432008059</v>
+        <v>0.2829956032134895</v>
       </c>
       <c r="D12">
-        <v>0.09585780921660358</v>
+        <v>0.06495674152503028</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.849931369969454</v>
+        <v>1.133471877417222</v>
       </c>
       <c r="G12">
-        <v>0.0008027375797389946</v>
+        <v>0.00246906833994529</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.303664608237199</v>
+        <v>0.3998966116253087</v>
       </c>
       <c r="L12">
-        <v>0.327030264093267</v>
+        <v>0.314361091532902</v>
       </c>
       <c r="M12">
-        <v>0.3862511642167945</v>
+        <v>0.2237517843034169</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.485295447756101</v>
+        <v>4.027412331638516</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.628495250019256</v>
+        <v>0.7071568430538662</v>
       </c>
       <c r="C13">
-        <v>0.1590230645871422</v>
+        <v>0.2830451221533465</v>
       </c>
       <c r="D13">
-        <v>0.09554579685326559</v>
+        <v>0.06484294650548605</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.8475370108535145</v>
+        <v>1.133236048960697</v>
       </c>
       <c r="G13">
-        <v>0.0008029717129377399</v>
+        <v>0.002469204198803517</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.29681125217445</v>
+        <v>0.3978507833287779</v>
       </c>
       <c r="L13">
-        <v>0.3255811115985239</v>
+        <v>0.3140686489657583</v>
       </c>
       <c r="M13">
-        <v>0.3841898735244982</v>
+        <v>0.223227524972387</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.480857745969672</v>
+        <v>4.027608861944799</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.599307929708004</v>
+        <v>0.6991301475441958</v>
       </c>
       <c r="C14">
-        <v>0.159506352104259</v>
+        <v>0.2832075417821898</v>
       </c>
       <c r="D14">
-        <v>0.09452815823151184</v>
+        <v>0.06447147193759406</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.8397766131939335</v>
+        <v>1.132481944276208</v>
       </c>
       <c r="G14">
-        <v>0.0008037368980279974</v>
+        <v>0.002469649359913812</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.274474073105068</v>
+        <v>0.3911781286663256</v>
       </c>
       <c r="L14">
-        <v>0.3208675686294526</v>
+        <v>0.3131186681600582</v>
       </c>
       <c r="M14">
-        <v>0.3774767195581035</v>
+        <v>0.2215199095105191</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>2.466537810844244</v>
+        <v>4.028299910910192</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.581450328504275</v>
+        <v>0.6942169118765094</v>
       </c>
       <c r="C15">
-        <v>0.1598038091103149</v>
+        <v>0.2833077417207264</v>
       </c>
       <c r="D15">
-        <v>0.09390474327354781</v>
+        <v>0.06424365352624761</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.8350597334015788</v>
+        <v>1.13203154744545</v>
       </c>
       <c r="G15">
-        <v>0.0008042068548932518</v>
+        <v>0.002469923645583137</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.260801707127712</v>
+        <v>0.3870903556183407</v>
       </c>
       <c r="L15">
-        <v>0.317989839991796</v>
+        <v>0.3125396509077092</v>
       </c>
       <c r="M15">
-        <v>0.3733716463141405</v>
+        <v>0.2204755677596566</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>2.457882349115124</v>
+        <v>4.028761712683746</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.479413064202447</v>
+        <v>0.6661128687456426</v>
       </c>
       <c r="C16">
-        <v>0.1615302673995167</v>
+        <v>0.2838928971135175</v>
       </c>
       <c r="D16">
-        <v>0.09033069646505254</v>
+        <v>0.0629338509604338</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.8085740203368061</v>
+        <v>1.129627014136148</v>
       </c>
       <c r="G16">
-        <v>0.0008069196635246763</v>
+        <v>0.002471520212428544</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.182590266704693</v>
+        <v>0.3636564153241579</v>
       </c>
       <c r="L16">
-        <v>0.3016387368237048</v>
+        <v>0.3092656241351079</v>
       </c>
       <c r="M16">
-        <v>0.349948710431633</v>
+        <v>0.2145158143188937</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>2.410010417425951</v>
+        <v>4.031998451959652</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.417064545241573</v>
+        <v>0.6489185624289746</v>
       </c>
       <c r="C17">
-        <v>0.1626088331123547</v>
+        <v>0.2842616618191478</v>
       </c>
       <c r="D17">
-        <v>0.08813652259819094</v>
+        <v>0.06212653996337281</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.7927951163759985</v>
+        <v>1.128309444708393</v>
       </c>
       <c r="G17">
-        <v>0.0008086018452818561</v>
+        <v>0.002472521782107438</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.134722943744947</v>
+        <v>0.349273151728454</v>
       </c>
       <c r="L17">
-        <v>0.2917276086864433</v>
+        <v>0.3072965035666613</v>
       </c>
       <c r="M17">
-        <v>0.3356652679361076</v>
+        <v>0.2108820523888895</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.382134960658192</v>
+        <v>4.03451087916585</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.381287782915962</v>
+        <v>0.6390461649270094</v>
       </c>
       <c r="C18">
-        <v>0.1632363166826458</v>
+        <v>0.2844773715443587</v>
       </c>
       <c r="D18">
-        <v>0.08687379682206142</v>
+        <v>0.06166081064765905</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.7838854100615293</v>
+        <v>1.12760951923913</v>
       </c>
       <c r="G18">
-        <v>0.0008095761490963903</v>
+        <v>0.002473106008784321</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.107227973792533</v>
+        <v>0.3409977322494626</v>
       </c>
       <c r="L18">
-        <v>0.2860689966050387</v>
+        <v>0.3061784122143507</v>
       </c>
       <c r="M18">
-        <v>0.3274794502250842</v>
+        <v>0.2088002605129589</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>2.36663073995237</v>
+        <v>4.036149563476272</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.36918827320423</v>
+        <v>0.6357065315440309</v>
       </c>
       <c r="C19">
-        <v>0.1634499928076103</v>
+        <v>0.2845510272437117</v>
       </c>
       <c r="D19">
-        <v>0.08644613074618945</v>
+        <v>0.0615028854533719</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.7808966262014678</v>
+        <v>1.127382483017641</v>
       </c>
       <c r="G19">
-        <v>0.0008099072066941222</v>
+        <v>0.00247330521926433</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.097924603946069</v>
+        <v>0.3381953929388146</v>
       </c>
       <c r="L19">
-        <v>0.2841601177066053</v>
+        <v>0.3058023370184344</v>
       </c>
       <c r="M19">
-        <v>0.3247127901769389</v>
+        <v>0.2080968223258424</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>2.361470336622062</v>
+        <v>4.036737646033174</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.423692762560052</v>
+        <v>0.6507471380009235</v>
       </c>
       <c r="C20">
-        <v>0.1624932804436376</v>
+        <v>0.2842220331553627</v>
       </c>
       <c r="D20">
-        <v>0.08837016581662027</v>
+        <v>0.06221262314308262</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.7944574928246055</v>
+        <v>1.128443709486191</v>
       </c>
       <c r="G20">
-        <v>0.0008084220782589623</v>
+        <v>0.002472414320015437</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.13981456982205</v>
+        <v>0.350804541337709</v>
       </c>
       <c r="L20">
-        <v>0.2927782734449522</v>
+        <v>0.3075046201025771</v>
       </c>
       <c r="M20">
-        <v>0.3371826555192925</v>
+        <v>0.2112680193448071</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>2.385047170368011</v>
+        <v>4.034223390028899</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.607876646262952</v>
+        <v>0.7014870860635369</v>
       </c>
       <c r="C21">
-        <v>0.1593641008107269</v>
+        <v>0.2831596866074939</v>
       </c>
       <c r="D21">
-        <v>0.09482707982068206</v>
+        <v>0.06458064131297903</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.842048366385157</v>
+        <v>1.132701043652403</v>
       </c>
       <c r="G21">
-        <v>0.0008035118831836339</v>
+        <v>0.002469518269483572</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.281032975056291</v>
+        <v>0.3931381705883723</v>
       </c>
       <c r="L21">
-        <v>0.3222500686786702</v>
+        <v>0.3133971018405077</v>
       </c>
       <c r="M21">
-        <v>0.3794470807568331</v>
+        <v>0.2220211397412299</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>2.47071965119278</v>
+        <v>4.028088906773974</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.729149593070304</v>
+        <v>0.7347988736070477</v>
       </c>
       <c r="C22">
-        <v>0.1573829168314091</v>
+        <v>0.2824973253387562</v>
       </c>
       <c r="D22">
-        <v>0.0990430991891742</v>
+        <v>0.06611578731004641</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.8747714974112455</v>
+        <v>1.135998833531758</v>
       </c>
       <c r="G22">
-        <v>0.0008003595580302694</v>
+        <v>0.002467697719614843</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.373753941008033</v>
+        <v>0.4207800779605293</v>
       </c>
       <c r="L22">
-        <v>0.3419292069658013</v>
+        <v>0.3173768392162231</v>
       </c>
       <c r="M22">
-        <v>0.4073742471114983</v>
+        <v>0.2291216229365176</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.531846395196311</v>
+        <v>4.025803499780949</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.664334369406475</v>
+        <v>0.7170061804222883</v>
       </c>
       <c r="C23">
-        <v>0.1584344378425335</v>
+        <v>0.2828479252179719</v>
       </c>
       <c r="D23">
-        <v>0.09679317779960428</v>
+        <v>0.06529760134992557</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.8571511457125354</v>
+        <v>1.134191597192299</v>
       </c>
       <c r="G23">
-        <v>0.0008020369898857322</v>
+        <v>0.002468662795073282</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.324223087325549</v>
+        <v>0.4060295506720308</v>
       </c>
       <c r="L23">
-        <v>0.3313856684364254</v>
+        <v>0.3152410261526057</v>
       </c>
       <c r="M23">
-        <v>0.3924390207888493</v>
+        <v>0.2253253475720598</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.498730623049539</v>
+        <v>4.026865542491294</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.420695934561053</v>
+        <v>0.6499203989538387</v>
       </c>
       <c r="C24">
-        <v>0.1625454987558257</v>
+        <v>0.2842399377406188</v>
       </c>
       <c r="D24">
-        <v>0.08826453968480763</v>
+        <v>0.06217370990568583</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.7937054300145689</v>
+        <v>1.128382829071839</v>
       </c>
       <c r="G24">
-        <v>0.0008085033285201647</v>
+        <v>0.002472462877630591</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.137512570118332</v>
+        <v>0.3501122196561255</v>
       </c>
       <c r="L24">
-        <v>0.2923031455706138</v>
+        <v>0.3074104870599257</v>
       </c>
       <c r="M24">
-        <v>0.3364965642893551</v>
+        <v>0.2110935009177766</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>2.383728939805678</v>
+        <v>4.034352758761514</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.161047892949597</v>
+        <v>0.5782214489091757</v>
       </c>
       <c r="C25">
-        <v>0.1672519791319296</v>
+        <v>0.2858794197659691</v>
       </c>
       <c r="D25">
-        <v>0.07903732057812363</v>
+        <v>0.0587512020104981</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.7315400622863351</v>
+        <v>1.124331062842501</v>
       </c>
       <c r="G25">
-        <v>0.0008157384265191081</v>
+        <v>0.002476873725734377</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.9374830315971394</v>
+        <v>0.2897004658025537</v>
       </c>
       <c r="L25">
-        <v>0.2517303433498057</v>
+        <v>0.2995183465979778</v>
       </c>
       <c r="M25">
-        <v>0.2772661345739778</v>
+        <v>0.1960580389806879</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>2.279693490440025</v>
+        <v>4.049830732091493</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_152/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_152/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.5260084838407408</v>
+        <v>0.9718312454858165</v>
       </c>
       <c r="C2">
-        <v>0.2872063558142699</v>
+        <v>0.1709496730809512</v>
       </c>
       <c r="D2">
-        <v>0.05618599683036507</v>
+        <v>0.07220718667247894</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.123251065952957</v>
+        <v>0.6904557040994561</v>
       </c>
       <c r="G2">
-        <v>0.002480392340157849</v>
+        <v>0.0008213071258587585</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.2451419974972282</v>
+        <v>0.7908776077234734</v>
       </c>
       <c r="L2">
-        <v>0.2941846220858366</v>
+        <v>0.2229997222567164</v>
       </c>
       <c r="M2">
-        <v>0.1852605062729822</v>
+        <v>0.2344025008965893</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>4.067591855727045</v>
+        <v>2.218220342531396</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.4909891331739971</v>
+        <v>0.8444798052246085</v>
       </c>
       <c r="C3">
-        <v>0.2881809373423287</v>
+        <v>0.1735999009500979</v>
       </c>
       <c r="D3">
-        <v>0.05441949097095033</v>
+        <v>0.06755026383923024</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.123706267813873</v>
+        <v>0.6652142833393739</v>
       </c>
       <c r="G3">
-        <v>0.002482947316076259</v>
+        <v>0.0008252399968497632</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.2148992048153957</v>
+        <v>0.6917171470570054</v>
       </c>
       <c r="L3">
-        <v>0.2908679756148871</v>
+        <v>0.2041416371646676</v>
       </c>
       <c r="M3">
-        <v>0.1781141232952024</v>
+        <v>0.2057245651322113</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>4.083599013994387</v>
+        <v>2.185045642084106</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.4696698222861926</v>
+        <v>0.7666181177243345</v>
       </c>
       <c r="C4">
-        <v>0.2888166716796761</v>
+        <v>0.1752981224239356</v>
       </c>
       <c r="D4">
-        <v>0.05332109844982824</v>
+        <v>0.06467543283169874</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.124571423672705</v>
+        <v>0.6509005700475186</v>
       </c>
       <c r="G4">
-        <v>0.002484600572380495</v>
+        <v>0.0008277357233148218</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.1963093341437769</v>
+        <v>0.6308609516147641</v>
       </c>
       <c r="L4">
-        <v>0.2889787838425733</v>
+        <v>0.1928345242775009</v>
       </c>
       <c r="M4">
-        <v>0.1738111013135963</v>
+        <v>0.1882704671269479</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>4.09538613175738</v>
+        <v>2.168571053272444</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.4610285048303808</v>
+        <v>0.7349586558005683</v>
       </c>
       <c r="C5">
-        <v>0.2890851550677738</v>
+        <v>0.1760079775490944</v>
       </c>
       <c r="D5">
-        <v>0.05287005678045631</v>
+        <v>0.06349982450024783</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.125071314183174</v>
+        <v>0.6453517142060292</v>
       </c>
       <c r="G5">
-        <v>0.002485295596443295</v>
+        <v>0.000828773453915625</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.1887289998868624</v>
+        <v>0.6060597537776005</v>
       </c>
       <c r="L5">
-        <v>0.2882460103439612</v>
+        <v>0.188290929709531</v>
       </c>
       <c r="M5">
-        <v>0.1720790392824263</v>
+        <v>0.1811926546404798</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>4.100682132642248</v>
+        <v>2.162796156202319</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.4595964432696178</v>
+        <v>0.7297054527580542</v>
       </c>
       <c r="C6">
-        <v>0.2891303060801285</v>
+        <v>0.1761269237081571</v>
       </c>
       <c r="D6">
-        <v>0.05279495460925432</v>
+        <v>0.06330436285586671</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.125163221011064</v>
+        <v>0.6444470993346556</v>
       </c>
       <c r="G6">
-        <v>0.002485412293665361</v>
+        <v>0.0008289470286652466</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.187470012033117</v>
+        <v>0.6019411709754081</v>
       </c>
       <c r="L6">
-        <v>0.2881265756887572</v>
+        <v>0.187540224488707</v>
       </c>
       <c r="M6">
-        <v>0.1717927307103224</v>
+        <v>0.18001938495253</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>4.101591288659307</v>
+        <v>2.161892776313834</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.469553093577872</v>
+        <v>0.7661908822267947</v>
       </c>
       <c r="C7">
-        <v>0.2888202543762937</v>
+        <v>0.1753076236777531</v>
       </c>
       <c r="D7">
-        <v>0.05331502943749911</v>
+        <v>0.06465959499103491</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.124577568744712</v>
+        <v>0.650824603664006</v>
       </c>
       <c r="G7">
-        <v>0.002484609859490373</v>
+        <v>0.000827749634230119</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.1962071220695378</v>
+        <v>0.6305264928448082</v>
       </c>
       <c r="L7">
-        <v>0.2889687511542505</v>
+        <v>0.1927729934574813</v>
       </c>
       <c r="M7">
-        <v>0.1737876551063593</v>
+        <v>0.1881748770979854</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>4.095455560565455</v>
+        <v>2.168489422897466</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.5138961959052892</v>
+        <v>0.9278428370890026</v>
       </c>
       <c r="C8">
-        <v>0.2875346587847964</v>
+        <v>0.1718487224822844</v>
       </c>
       <c r="D8">
-        <v>0.05557977105444678</v>
+        <v>0.0706045605613852</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.123286501178328</v>
+        <v>0.681498081064035</v>
       </c>
       <c r="G8">
-        <v>0.002481255797635958</v>
+        <v>0.0008226465999989562</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.2347187962640618</v>
+        <v>0.7566754923103787</v>
       </c>
       <c r="L8">
-        <v>0.293010517712645</v>
+        <v>0.2164384333873528</v>
       </c>
       <c r="M8">
-        <v>0.1827788780771655</v>
+        <v>0.2244798988718237</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>4.072704679758488</v>
+        <v>2.20594816924077</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.6022840684067035</v>
+        <v>1.248158290818736</v>
       </c>
       <c r="C9">
-        <v>0.2853086249970254</v>
+        <v>0.1656304029061069</v>
       </c>
       <c r="D9">
-        <v>0.05991112569153501</v>
+        <v>0.08215036448485336</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.12540021635651</v>
+        <v>0.7517073202300537</v>
       </c>
       <c r="G9">
-        <v>0.002475346020455953</v>
+        <v>0.0008132648970251815</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.3100627074197462</v>
+        <v>1.004726607774842</v>
       </c>
       <c r="L9">
-        <v>0.3021027377546233</v>
+        <v>0.2652058188666899</v>
       </c>
       <c r="M9">
-        <v>0.2010804578281267</v>
+        <v>0.2970885612296001</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>4.043628215787692</v>
+        <v>2.312255105124137</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.6680771914600996</v>
+        <v>1.486539387579512</v>
       </c>
       <c r="C10">
-        <v>0.2838513065478061</v>
+        <v>0.1614081621053387</v>
       </c>
       <c r="D10">
-        <v>0.06302578251229107</v>
+        <v>0.09058098013727545</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.129785203476004</v>
+        <v>0.8103974514459509</v>
       </c>
       <c r="G10">
-        <v>0.002471407029238181</v>
+        <v>0.000806728619293977</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.3652972908333822</v>
+        <v>1.188057598375764</v>
       </c>
       <c r="L10">
-        <v>0.3094922771653756</v>
+        <v>0.3027755007112489</v>
       </c>
       <c r="M10">
-        <v>0.214931567319482</v>
+        <v>0.3515827015925339</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>4.031737999728051</v>
+        <v>2.413264276030674</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.6981903876179558</v>
+        <v>1.595891809109389</v>
       </c>
       <c r="C11">
-        <v>0.283226660758011</v>
+        <v>0.1595631502510351</v>
       </c>
       <c r="D11">
-        <v>0.06442792264946462</v>
+        <v>0.09440894728108873</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.132395131648209</v>
+        <v>0.8388724446793674</v>
       </c>
       <c r="G11">
-        <v>0.002469701716072035</v>
+        <v>0.0008038266931977321</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.390396455444062</v>
+        <v>1.271858926046718</v>
       </c>
       <c r="L11">
-        <v>0.3130077718672624</v>
+        <v>0.3203167022770117</v>
       </c>
       <c r="M11">
-        <v>0.2213201031223235</v>
+        <v>0.3766912968850207</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>4.028385937094896</v>
+        <v>2.464875786511641</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.7096194320766642</v>
+        <v>1.637453406030289</v>
       </c>
       <c r="C12">
-        <v>0.2829956032134895</v>
+        <v>0.1588754432008166</v>
       </c>
       <c r="D12">
-        <v>0.06495674152503028</v>
+        <v>0.09585780921672438</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.133471877417222</v>
+        <v>0.849931369969454</v>
       </c>
       <c r="G12">
-        <v>0.00246906833994529</v>
+        <v>0.000802737579770173</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.3998966116253087</v>
+        <v>1.303664608237256</v>
       </c>
       <c r="L12">
-        <v>0.314361091532902</v>
+        <v>0.3270302640933096</v>
       </c>
       <c r="M12">
-        <v>0.2237517843034169</v>
+        <v>0.3862511642167874</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>4.027412331638516</v>
+        <v>2.485295447756101</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.7071568430538662</v>
+        <v>1.628495250019313</v>
       </c>
       <c r="C13">
-        <v>0.2830451221533465</v>
+        <v>0.1590230645872701</v>
       </c>
       <c r="D13">
-        <v>0.06484294650548605</v>
+        <v>0.09554579685351428</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.133236048960697</v>
+        <v>0.8475370108535145</v>
       </c>
       <c r="G13">
-        <v>0.002469204198803517</v>
+        <v>0.0008029717128818457</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.3978507833287779</v>
+        <v>1.296811252174564</v>
       </c>
       <c r="L13">
-        <v>0.3140686489657583</v>
+        <v>0.3255811115984386</v>
       </c>
       <c r="M13">
-        <v>0.223227524972387</v>
+        <v>0.3841898735245124</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>4.027608861944799</v>
+        <v>2.480857745969729</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.6991301475441958</v>
+        <v>1.599307929707891</v>
       </c>
       <c r="C14">
-        <v>0.2832075417821898</v>
+        <v>0.1595063521041524</v>
       </c>
       <c r="D14">
-        <v>0.06447147193759406</v>
+        <v>0.09452815823179606</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.132481944276208</v>
+        <v>0.8397766131939335</v>
       </c>
       <c r="G14">
-        <v>0.002469649359913812</v>
+        <v>0.0008037368980269811</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.3911781286663256</v>
+        <v>1.274474073105011</v>
       </c>
       <c r="L14">
-        <v>0.3131186681600582</v>
+        <v>0.3208675686294669</v>
       </c>
       <c r="M14">
-        <v>0.2215199095105191</v>
+        <v>0.3774767195580893</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>4.028299910910192</v>
+        <v>2.466537810844272</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.6942169118765094</v>
+        <v>1.581450328504275</v>
       </c>
       <c r="C15">
-        <v>0.2833077417207264</v>
+        <v>0.1598038091103042</v>
       </c>
       <c r="D15">
-        <v>0.06424365352624761</v>
+        <v>0.09390474327349096</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.13203154744545</v>
+        <v>0.8350597334015646</v>
       </c>
       <c r="G15">
-        <v>0.002469923645583137</v>
+        <v>0.0008042068549515489</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.3870903556183407</v>
+        <v>1.260801707127627</v>
       </c>
       <c r="L15">
-        <v>0.3125396509077092</v>
+        <v>0.3179898399917818</v>
       </c>
       <c r="M15">
-        <v>0.2204755677596566</v>
+        <v>0.3733716463141334</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>4.028761712683746</v>
+        <v>2.457882349115067</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.6661128687456426</v>
+        <v>1.479413064202532</v>
       </c>
       <c r="C16">
-        <v>0.2838928971135175</v>
+        <v>0.1615302673995309</v>
       </c>
       <c r="D16">
-        <v>0.0629338509604338</v>
+        <v>0.09033069646511649</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.129627014136148</v>
+        <v>0.8085740203368061</v>
       </c>
       <c r="G16">
-        <v>0.002471520212428544</v>
+        <v>0.0008069196635533889</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.3636564153241579</v>
+        <v>1.182590266704722</v>
       </c>
       <c r="L16">
-        <v>0.3092656241351079</v>
+        <v>0.3016387368237616</v>
       </c>
       <c r="M16">
-        <v>0.2145158143188937</v>
+        <v>0.3499487104316259</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>4.031998451959652</v>
+        <v>2.410010417425951</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.6489185624289746</v>
+        <v>1.417064545241288</v>
       </c>
       <c r="C17">
-        <v>0.2842616618191478</v>
+        <v>0.1626088331121203</v>
       </c>
       <c r="D17">
-        <v>0.06212653996337281</v>
+        <v>0.08813652259834015</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.128309444708393</v>
+        <v>0.7927951163760127</v>
       </c>
       <c r="G17">
-        <v>0.002472521782107438</v>
+        <v>0.0008086018452807868</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.349273151728454</v>
+        <v>1.134722943745004</v>
       </c>
       <c r="L17">
-        <v>0.3072965035666613</v>
+        <v>0.2917276086863723</v>
       </c>
       <c r="M17">
-        <v>0.2108820523888895</v>
+        <v>0.3356652679361147</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>4.03451087916585</v>
+        <v>2.38213496065822</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.6390461649270094</v>
+        <v>1.381287782916246</v>
       </c>
       <c r="C18">
-        <v>0.2844773715443587</v>
+        <v>0.1632363166822977</v>
       </c>
       <c r="D18">
-        <v>0.06166081064765905</v>
+        <v>0.08687379682182694</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.12760951923913</v>
+        <v>0.7838854100615293</v>
       </c>
       <c r="G18">
-        <v>0.002473106008784321</v>
+        <v>0.0008095761490669694</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.3409977322494626</v>
+        <v>1.107227973792504</v>
       </c>
       <c r="L18">
-        <v>0.3061784122143507</v>
+        <v>0.2860689966050245</v>
       </c>
       <c r="M18">
-        <v>0.2088002605129589</v>
+        <v>0.3274794502250984</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>4.036149563476272</v>
+        <v>2.366630739952342</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.6357065315440309</v>
+        <v>1.369188273204372</v>
       </c>
       <c r="C19">
-        <v>0.2845510272437117</v>
+        <v>0.1634499928074078</v>
       </c>
       <c r="D19">
-        <v>0.0615028854533719</v>
+        <v>0.08644613074596919</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.127382483017641</v>
+        <v>0.7808966262014678</v>
       </c>
       <c r="G19">
-        <v>0.00247330521926433</v>
+        <v>0.0008099072067269467</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.3381953929388146</v>
+        <v>1.097924603946041</v>
       </c>
       <c r="L19">
-        <v>0.3058023370184344</v>
+        <v>0.2841601177066053</v>
       </c>
       <c r="M19">
-        <v>0.2080968223258424</v>
+        <v>0.3247127901769531</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>4.036737646033174</v>
+        <v>2.361470336621977</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.6507471380009235</v>
+        <v>1.423692762560052</v>
       </c>
       <c r="C20">
-        <v>0.2842220331553627</v>
+        <v>0.1624932804438721</v>
       </c>
       <c r="D20">
-        <v>0.06221262314308262</v>
+        <v>0.08837016581675528</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.128443709486191</v>
+        <v>0.7944574928245913</v>
       </c>
       <c r="G20">
-        <v>0.002472414320015437</v>
+        <v>0.0008084220782605955</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.350804541337709</v>
+        <v>1.139814569822192</v>
       </c>
       <c r="L20">
-        <v>0.3075046201025771</v>
+        <v>0.292778273444938</v>
       </c>
       <c r="M20">
-        <v>0.2112680193448071</v>
+        <v>0.3371826555192712</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>4.034223390028899</v>
+        <v>2.385047170368011</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.7014870860635369</v>
+        <v>1.607876646262866</v>
       </c>
       <c r="C21">
-        <v>0.2831596866074939</v>
+        <v>0.1593641008104854</v>
       </c>
       <c r="D21">
-        <v>0.06458064131297903</v>
+        <v>0.09482707982076022</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.132701043652403</v>
+        <v>0.842048366385157</v>
       </c>
       <c r="G21">
-        <v>0.002469518269483572</v>
+        <v>0.0008035118832124177</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.3931381705883723</v>
+        <v>1.28103297505632</v>
       </c>
       <c r="L21">
-        <v>0.3133971018405077</v>
+        <v>0.3222500686786134</v>
       </c>
       <c r="M21">
-        <v>0.2220211397412299</v>
+        <v>0.3794470807568331</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>4.028088906773974</v>
+        <v>2.47071965119278</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.7347988736070477</v>
+        <v>1.72914959307019</v>
       </c>
       <c r="C22">
-        <v>0.2824973253387562</v>
+        <v>0.1573829168315264</v>
       </c>
       <c r="D22">
-        <v>0.06611578731004641</v>
+        <v>0.09904309918906051</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.135998833531758</v>
+        <v>0.8747714974112171</v>
       </c>
       <c r="G22">
-        <v>0.002467697719614843</v>
+        <v>0.0008003595580589957</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.4207800779605293</v>
+        <v>1.373753941008033</v>
       </c>
       <c r="L22">
-        <v>0.3173768392162231</v>
+        <v>0.3419292069656592</v>
       </c>
       <c r="M22">
-        <v>0.2291216229365176</v>
+        <v>0.4073742471114912</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>4.025803499780949</v>
+        <v>2.531846395196283</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.7170061804222883</v>
+        <v>1.664334369406248</v>
       </c>
       <c r="C23">
-        <v>0.2828479252179719</v>
+        <v>0.1584344378421925</v>
       </c>
       <c r="D23">
-        <v>0.06529760134992557</v>
+        <v>0.0967931777994977</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.134191597192299</v>
+        <v>0.8571511457125496</v>
       </c>
       <c r="G23">
-        <v>0.002468662795073282</v>
+        <v>0.0008020369898562897</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.4060295506720308</v>
+        <v>1.324223087325578</v>
       </c>
       <c r="L23">
-        <v>0.3152410261526057</v>
+        <v>0.3313856684364112</v>
       </c>
       <c r="M23">
-        <v>0.2253253475720598</v>
+        <v>0.3924390207888564</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>4.026865542491294</v>
+        <v>2.498730623049653</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.6499203989538387</v>
+        <v>1.420695934560825</v>
       </c>
       <c r="C24">
-        <v>0.2842399377406188</v>
+        <v>0.1625454987555912</v>
       </c>
       <c r="D24">
-        <v>0.06217370990568583</v>
+        <v>0.08826453968520553</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.128382829071839</v>
+        <v>0.7937054300145832</v>
       </c>
       <c r="G24">
-        <v>0.002472462877630591</v>
+        <v>0.0008085033284926685</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.3501122196561255</v>
+        <v>1.137512570118275</v>
       </c>
       <c r="L24">
-        <v>0.3074104870599257</v>
+        <v>0.2923031455706138</v>
       </c>
       <c r="M24">
-        <v>0.2110935009177766</v>
+        <v>0.3364965642893409</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>4.034352758761514</v>
+        <v>2.383728939805678</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.5782214489091757</v>
+        <v>1.161047892949881</v>
       </c>
       <c r="C25">
-        <v>0.2858794197659691</v>
+        <v>0.1672519791322742</v>
       </c>
       <c r="D25">
-        <v>0.0587512020104981</v>
+        <v>0.07903732057806678</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.124331062842501</v>
+        <v>0.731540062286328</v>
       </c>
       <c r="G25">
-        <v>0.002476873725734377</v>
+        <v>0.0008157384265196811</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.2897004658025537</v>
+        <v>0.9374830315971678</v>
       </c>
       <c r="L25">
-        <v>0.2995183465979778</v>
+        <v>0.2517303433498626</v>
       </c>
       <c r="M25">
-        <v>0.1960580389806879</v>
+        <v>0.2772661345739778</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>4.049830732091493</v>
+        <v>2.279693490440053</v>
       </c>
     </row>
   </sheetData>
